--- a/results/pseudomonas_putida/Myristic_acid_Study/pseudomonas_putida_carbon_source_functional_composition.xlsx
+++ b/results/pseudomonas_putida/Myristic_acid_Study/pseudomonas_putida_carbon_source_functional_composition.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,144 +456,885 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino acid</t>
+          <t>Acetate specific response</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.35091496232508</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.275541795665635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Acetate utilization</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.05274488697524</v>
+        <v>0.2152852529601722</v>
       </c>
       <c r="C3" t="n">
-        <v>22.75541795665635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Element homeostasis</t>
+          <t>Acetoin catabolism</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.722282023681378</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.489164086687307</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Energy generation</t>
+          <t>Alcohol/aromatics catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.722282023681378</v>
+        <v>0.1076426264800861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3095975232198143</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genomic</t>
+          <t>Alginate biosynthesis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.399354144241119</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.702786377708978</v>
+        <v>1.09375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t>Amino acid transportation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1076426264800861</v>
+        <v>1.399354144241119</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secondary metabolite</t>
+          <t>Aromatic acid catabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.368137782561894</v>
+        <v>0.3229278794402583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1547987616099071</v>
+        <v>3.90625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Benzoate catabolism</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.39289558665231</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>16.71826625386997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Structural components</t>
+          <t>Biosynthesis of lipodepsinonapeptide phytotoxins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1076426264800861</v>
+        <v>0.2152852529601722</v>
       </c>
       <c r="C10" t="n">
-        <v>1.238390092879257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Branched amino acid transportation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.27448869752422</v>
+        <v>0.1076426264800861</v>
       </c>
       <c r="C11" t="n">
-        <v>2.321981424148607</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Uncharacterized</t>
+          <t>C2 carbon metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.43487621097955</v>
+        <v>2.045209903121636</v>
       </c>
       <c r="C12" t="n">
-        <v>15.32507739938081</v>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cell mobility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Chaeperone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Citrate transportation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid catabolism</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.906350914962325</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flagella synthesis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FleQ related exporters, aldehyde stress</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fructose catabolism</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Galactose ALE specific</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8611410118406888</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glycine Betaine Catabolism</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.444564047362755</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Glycine metabolism</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.336921420882669</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate catabolism</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3229278794402584</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2152852529601722</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9687836383207751</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Homocysteine metabolism</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ICE related</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic ion transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5382131324004306</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lactate catabolism</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3229278794402584</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Light inducible iModulon</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2152852529601722</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Metal homeostasis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2152852529601722</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Metal related response</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8611410118406889</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Muconate production study</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.399354144241119</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.71875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.906350914962325</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.65625</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response, PP_3231-89</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_0943, hypothetical protein, 393 bp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.583423035522067</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.03125</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1176 hypothetical protein, 135 bp</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1864, hypothetical protein, 153 bp</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_2520 hypothetical protein, 117 bp</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_5437 hypothetical protein, 183 bp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Noise, kdpF, too small peptide</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14.10118406889128</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress response</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4305705059203444</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress, lipoprotein, membrane</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3229278794402584</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.399354144241119</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.40625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>PP_2260-3, sugar transport</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>PP_3636-3639</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pentose and glucuronate interconversions</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7534983853606028</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Phage related</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Polyamine metabolism</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.076426264800861</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Protein synthesis</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.583423035522067</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pyoverdine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.152852529601722</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Redox state homeostasis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.184068891280947</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Ribose and lipid catabolism</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5.382131324004305</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.656250000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ribose, nicotinic acid catabolism</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.614639397201292</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Starvation response</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.583423035522067</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Stationary phase response</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.767491926803014</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.96875</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Sugar catabolism</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.045209903121636</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Sulfur metabolism</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>T6SS system</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1076426264800861</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>TCA cycle</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.614639397201292</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.583423035522067</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Triethylamine hydrogen sulfate stress</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2152852529601722</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>TurA deletion</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>TurB deletion</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Tyrosine metabolism</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4305705059203444</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6.458557588805167</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.59375</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>mfsR related</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3229278794402584</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>potentially iron metabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5382131324004306</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +1348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1547987616099071</v>
+        <v>0.5549389567147613</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +1393,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1076426264800861</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -661,492 +1402,492 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.258064516129032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6191950464396285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.076426264800861</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3095975232198143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2152852529601722</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C6" t="n">
-        <v>2.786377708978328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3229278794402584</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.08359133126935</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1076426264800861</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C8" t="n">
-        <v>1.393188854489164</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1547987616099071</v>
+        <v>3.884572697003329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7739938080495357</v>
+        <v>0.9988901220865706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4643962848297213</v>
+        <v>0.9988901220865706</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5382131324004306</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7739938080495357</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5382131324004306</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3095975232198143</v>
+        <v>0.3329633740288568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.013993541442411</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.3343653250774</v>
+        <v>0.776914539400666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6458557588805167</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7739938080495357</v>
+        <v>0.5549389567147613</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2152852529601722</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7739938080495357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4305705059203444</v>
+        <v>1.451612903225806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3095975232198143</v>
+        <v>2.108768035516093</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4643962848297213</v>
+        <v>1.109877913429523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.291711517761033</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C19" t="n">
-        <v>2.012383900928793</v>
+        <v>2.330743618201998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.121636167922497</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9287925696594427</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1076426264800861</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.715170278637771</v>
+        <v>0.3329633740288568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.048387096774194</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6191950464396285</v>
+        <v>1.109877913429523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8611410118406888</v>
+        <v>2.17741935483871</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7534983853606028</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C24" t="n">
-        <v>1.08359133126935</v>
+        <v>2.552719200887902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2152852529601722</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.321981424148607</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1547987616099071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9687836383207751</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9287925696594427</v>
+        <v>0.6659267480577136</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.829924650161464</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7739938080495357</v>
+        <v>1.109877913429523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4305705059203444</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5382131324004306</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7534983853606028</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4643962848297213</v>
+        <v>0.3329633740288568</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.506996770721206</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3095975232198143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.291711517761033</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4643962848297213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.260495156081809</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C34" t="n">
-        <v>1.857585139318885</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3229278794402584</v>
+        <v>1.048387096774194</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3095975232198143</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.291711517761033</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5382131324004306</v>
+        <v>2.016129032258065</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3095975232198143</v>
+        <v>2.44173140954495</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.506996770721206</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3095975232198143</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.399354144241119</v>
+        <v>1.209677419354839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3095975232198143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9687836383207751</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1547987616099071</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.184068891280947</v>
+        <v>1.129032258064516</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1155,50 +1896,50 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.399354144241119</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.767491926803014</v>
+        <v>1.048387096774194</v>
       </c>
       <c r="C43" t="n">
-        <v>2.631578947368421</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="C44" t="n">
-        <v>1.08359133126935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9687836383207751</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1207,219 +1948,219 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.184068891280947</v>
+        <v>2.903225806451613</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.219755826859045</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.076426264800861</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3095975232198143</v>
+        <v>1.44284128745838</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.076426264800861</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1547987616099071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8611410118406888</v>
+        <v>1.129032258064516</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6191950464396285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4305705059203444</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9687836383207751</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6191950464396285</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.152852529601722</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="C52" t="n">
-        <v>2.1671826625387</v>
+        <v>0.5549389567147613</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.583423035522067</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6191950464396285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.184068891280947</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3095975232198143</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.614639397201292</v>
+        <v>8.225806451612904</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>11.76470588235294</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.045209903121636</v>
+        <v>5.32258064516129</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.8879023307436182</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.152852529601722</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C57" t="n">
-        <v>3.715170278637771</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.475780409041981</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6191950464396285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.583423035522067</v>
+        <v>1.370967741935484</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1547987616099071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.076426264800861</v>
+        <v>4.193548387096775</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3095975232198143</v>
+        <v>7.991120976692565</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5382131324004306</v>
+        <v>1.209677419354839</v>
       </c>
       <c r="C61" t="n">
-        <v>1.547987616099071</v>
+        <v>0.2219755826859046</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.829924650161464</v>
+        <v>1.451612903225806</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1428,352 +2169,391 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4305705059203444</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1547987616099071</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.552206673842842</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C64" t="n">
-        <v>3.25077399380805</v>
+        <v>1.331853496115427</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.121636167922497</v>
+        <v>1.370967741935484</v>
       </c>
       <c r="C65" t="n">
-        <v>1.547987616099071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.184068891280947</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="C66" t="n">
-        <v>1.238390092879257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1.774193548387097</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6191950464396285</v>
+        <v>1.553829078801332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4305705059203444</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1547987616099071</v>
+        <v>0.776914539400666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.736275565123789</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.6659267480577136</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.184068891280947</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7739938080495357</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7534983853606028</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.3329633740288568</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.583423035522067</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3095975232198143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>11.93548387096774</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4643962848297213</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2152852529601722</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6191950464396285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.382131324004305</v>
+        <v>2.016129032258065</v>
       </c>
       <c r="C75" t="n">
-        <v>2.321981424148607</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.121636167922497</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1.393188854489164</v>
+        <v>0.3329633740288568</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.7534983853606028</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7739938080495357</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.184068891280947</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7739938080495357</v>
+        <v>1.664816870144284</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.184068891280947</v>
+        <v>3.145161290322581</v>
       </c>
       <c r="C79" t="n">
-        <v>2.631578947368421</v>
+        <v>1.44284128745838</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.906350914962325</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4643962848297213</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6.135629709364909</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C81" t="n">
-        <v>17.64705882352941</v>
+        <v>0.4439511653718091</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5.597416576964478</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C82" t="n">
-        <v>12.38390092879257</v>
+        <v>1.220865704772475</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.506996770721206</v>
+        <v>1.532258064516129</v>
       </c>
       <c r="C83" t="n">
-        <v>5.41795665634675</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2152852529601722</v>
+        <v>2.258064516129032</v>
       </c>
       <c r="C84" t="n">
-        <v>1.857585139318885</v>
+        <v>8.990011098779133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8611410118406888</v>
+        <v>3.548387096774194</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1547987616099071</v>
+        <v>8.102108768035517</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.152852529601722</v>
+        <v>2.096774193548387</v>
       </c>
       <c r="C86" t="n">
-        <v>1.702786377708978</v>
+        <v>10.09988901220866</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1076426264800861</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C87" t="n">
-        <v>1.238390092879257</v>
+        <v>2.552719200887902</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3229278794402584</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C88" t="n">
-        <v>3.715170278637771</v>
+        <v>0.1109877913429523</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.854838709677419</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.109877913429523</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>S_Xenobiotic_tolerance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.6659267480577136</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>S_tRNA_Charging</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.330743618201998</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
           <t>Unassigned</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2.906350914962325</v>
-      </c>
-      <c r="C89" t="n">
-        <v>5.727554179566564</v>
+      <c r="B92" t="n">
+        <v>0.8870967741935484</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.552719200887902</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +2567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1815,144 +2595,885 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino acid</t>
+          <t>Acetate specific response</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.860267314702308</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.243542435424354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Acetate utilization</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.13244228432564</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="C3" t="n">
-        <v>21.95571955719557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Element homeostasis</t>
+          <t>Acetoin catabolism</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.065613608748481</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.612546125461255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Energy generation</t>
+          <t>Alcohol/aromatics catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8505467800729041</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="C5" t="n">
-        <v>1.660516605166052</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genomic</t>
+          <t>Alginate biosynthesis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.458080194410692</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.476014760147601</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t>Amino acid transportation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1215066828675577</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.576923076923077</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secondary metabolite</t>
+          <t>Aromatic acid catabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.67314702308627</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3690036900369004</v>
+        <v>2.884615384615385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Benzoate catabolism</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.36573511543135</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15.12915129151292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Structural components</t>
+          <t>Biosynthesis of lipodepsinonapeptide phytotoxins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1215066828675577</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7380073800738007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Branched amino acid transportation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.710814094775212</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="C11" t="n">
-        <v>2.398523985239852</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Uncharacterized</t>
+          <t>C2 carbon metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.03037667071689</v>
+        <v>2.012578616352201</v>
       </c>
       <c r="C12" t="n">
-        <v>14.57564575645756</v>
+        <v>1.923076923076923</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cell mobility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Chaeperone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Citrate transportation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.153846153846154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid catabolism</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.144654088050315</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.307692307692308</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flagella synthesis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FleQ related exporters, aldehyde stress</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fructose catabolism</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Galactose ALE specific</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.576923076923077</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glycine Betaine Catabolism</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.641509433962264</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.423076923076923</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Glycine metabolism</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.270440251572327</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.307692307692308</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate catabolism</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3773584905660378</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.576923076923077</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2515723270440252</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.006289308176101</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Homocysteine metabolism</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ICE related</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic ion transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.628930817610063</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lactate catabolism</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Light inducible iModulon</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2515723270440252</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Metal homeostasis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2515723270440252</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Metal related response</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.153846153846154</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Muconate production study</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.509433962264151</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.153846153846154</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.144654088050315</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.884615384615385</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response, PP_3231-89</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_0943, hypothetical protein, 393 bp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.389937106918239</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.923076923076923</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1176 hypothetical protein, 135 bp</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1864, hypothetical protein, 153 bp</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_2520 hypothetical protein, 117 bp</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_5437 hypothetical protein, 183 bp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Noise, kdpF, too small peptide</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14.46540880503145</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.692307692307693</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress response</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3773584905660378</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress, lipoprotein, membrane</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2515723270440252</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.006289308176101</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.153846153846154</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>PP_2260-3, sugar transport</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>PP_3636-3639</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.576923076923077</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pentose and glucuronate interconversions</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2515723270440252</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Phage related</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Polyamine metabolism</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.006289308176101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.923076923076923</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Protein synthesis</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.767295597484277</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pyoverdine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.515723270440252</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Redox state homeostasis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.628930817610063</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Ribose and lipid catabolism</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.654088050314465</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.153846153846154</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ribose, nicotinic acid catabolism</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8805031446540881</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.153846153846154</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Starvation response</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.767295597484277</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.692307692307693</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Stationary phase response</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2.389937106918239</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.076923076923077</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Sugar catabolism</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.383647798742139</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.576923076923077</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Sulfur metabolism</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.307692307692308</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>T6SS system</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>TCA cycle</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.509433962264151</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.576923076923077</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.89308176100629</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.307692307692308</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Triethylamine hydrogen sulfate stress</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>TurA deletion</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>TurB deletion</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Tyrosine metabolism</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6.79245283018868</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.269230769230769</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>mfsR related</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2515723270440252</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>potentially iron metabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3773584905660378</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9615384615384616</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +3487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1845018450184502</v>
+        <v>0.648508430609598</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +3532,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1215066828675577</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2020,336 +3541,336 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.075471698113208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7380073800738007</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.215066828675577</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7380073800738007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2430133657351154</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C6" t="n">
-        <v>1.660516605166052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2430133657351154</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7380073800738007</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C8" t="n">
-        <v>1.107011070110701</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.631647211413749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.5188067444876783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1845018450184502</v>
+        <v>0.7782101167315175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1215066828675577</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9225092250922509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4860267314702308</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1845018450184502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.1591737545565</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.088560885608856</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7290400972053462</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.291512915129151</v>
+        <v>0.5188067444876783</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5535055350553505</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4860267314702308</v>
+        <v>1.037735849056604</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.853437094682231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3690036900369004</v>
+        <v>1.426718547341115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.336573511543135</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.107011070110701</v>
+        <v>2.075226977950713</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.67314702308627</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C20" t="n">
-        <v>1.476014760147601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1215066828675577</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.398523985239852</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3690036900369004</v>
+        <v>0.5188067444876783</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2430133657351154</v>
+        <v>1.226415094339623</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7380073800738007</v>
+        <v>0.648508430609598</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9225092250922509</v>
+        <v>1.945525291828794</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2430133657351154</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.029520295202952</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.09356014580802</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9225092250922509</v>
+        <v>0.5188067444876783</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.065613608748481</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9225092250922509</v>
+        <v>1.167315175097276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4860267314702308</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2358,206 +3879,206 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6075334143377886</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7380073800738007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.850546780072904</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5535055350553505</v>
+        <v>0.3891050583657588</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.701093560145808</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3690036900369004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.215066828675577</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3690036900369004</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.551640340218712</v>
+        <v>1.037735849056604</v>
       </c>
       <c r="C34" t="n">
-        <v>2.214022140221402</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3645200486026731</v>
+        <v>1.226415094339623</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3690036900369004</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.458080194410692</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6075334143377886</v>
+        <v>2.075471698113208</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3690036900369004</v>
+        <v>2.983138780804151</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.458080194410692</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7380073800738007</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.57958687727825</v>
+        <v>1.415094339622642</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3690036900369004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9720534629404617</v>
+        <v>0.6603773584905661</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1845018450184502</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.336573511543135</v>
+        <v>1.132075471698113</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.57958687727825</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.5188067444876783</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.065613608748481</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="C43" t="n">
-        <v>3.321033210332104</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.6603773584905661</v>
       </c>
       <c r="C44" t="n">
-        <v>1.291512915129151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.09356014580802</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2566,573 +4087,612 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.336573511543135</v>
+        <v>1.415094339622642</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.723735408560311</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.215066828675577</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3690036900369004</v>
+        <v>1.686121919584955</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.215066828675577</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1845018450184502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9720534629404617</v>
+        <v>1.320754716981132</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7380073800738007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4860267314702308</v>
+        <v>0.6603773584905661</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.09356014580802</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7380073800738007</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.430133657351154</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C52" t="n">
-        <v>2.583025830258303</v>
+        <v>0.648508430609598</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.916160388821385</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7380073800738007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.458080194410692</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1845018450184502</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.822600243013366</v>
+        <v>9.622641509433963</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>17.38002594033722</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.308626974483597</v>
+        <v>6.226415094339623</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1845018450184502</v>
+        <v>1.037613488975357</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.430133657351154</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C57" t="n">
-        <v>3.874538745387454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.794653705953827</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7380073800738007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.551640340218712</v>
+        <v>1.509433962264151</v>
       </c>
       <c r="C59" t="n">
-        <v>1.476014760147601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.09356014580802</v>
+        <v>4.811320754716982</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9225092250922509</v>
+        <v>5.317769130998703</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.6075334143377886</v>
+        <v>1.132075471698113</v>
       </c>
       <c r="C61" t="n">
-        <v>1.660516605166052</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.065613608748481</v>
+        <v>1.226415094339623</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4860267314702308</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1845018450184502</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.374240583232078</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="C64" t="n">
-        <v>4.059040590405904</v>
+        <v>1.426718547341115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.402187120291616</v>
+        <v>1.60377358490566</v>
       </c>
       <c r="C65" t="n">
-        <v>2.583025830258303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.336573511543135</v>
+        <v>0.6603773584905661</v>
       </c>
       <c r="C66" t="n">
-        <v>1.107011070110701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>2.075471698113208</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7380073800738007</v>
+        <v>1.815823605706874</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4860267314702308</v>
+        <v>2.075471698113208</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1845018450184502</v>
+        <v>1.037613488975357</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.009720534629404</v>
+        <v>0.6603773584905661</v>
       </c>
       <c r="C69" t="n">
-        <v>1.476014760147601</v>
+        <v>0.5188067444876783</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.336573511543135</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9225092250922509</v>
+        <v>0.3891050583657588</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.850546780072904</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3690036900369004</v>
+        <v>0.3891050583657588</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.916160388821385</v>
+        <v>0.6603773584905661</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7380073800738007</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>13.30188679245283</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1845018450184502</v>
+        <v>3.24254215304799</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2430133657351154</v>
+        <v>0.6603773584905661</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7380073800738007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.710814094775213</v>
+        <v>2.169811320754717</v>
       </c>
       <c r="C75" t="n">
-        <v>2.214022140221402</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.280680437424059</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9225092250922509</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.850546780072904</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1.291512915129151</v>
+        <v>0.5188067444876783</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4860267314702308</v>
+        <v>4.622641509433962</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3690036900369004</v>
+        <v>2.334630350194553</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.215066828675577</v>
+        <v>3.30188679245283</v>
       </c>
       <c r="C79" t="n">
-        <v>2.952029520295203</v>
+        <v>1.426718547341115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.916160388821385</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5535055350553505</v>
+        <v>0.3891050583657588</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3.766707168894289</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="C81" t="n">
-        <v>10.70110701107011</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6.075334143377885</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C82" t="n">
-        <v>13.65313653136531</v>
+        <v>1.945525291828794</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.701093560145808</v>
+        <v>1.509433962264151</v>
       </c>
       <c r="C83" t="n">
-        <v>5.350553505535055</v>
+        <v>0.2594033722438391</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1.69811320754717</v>
       </c>
       <c r="C84" t="n">
-        <v>2.583025830258303</v>
+        <v>5.836575875486381</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.944106925880923</v>
+        <v>2.924528301886792</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1845018450184502</v>
+        <v>8.560311284046692</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.187120291616039</v>
+        <v>1.981132075471698</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7380073800738007</v>
+        <v>6.48508430609598</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1215066828675577</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1.476014760147601</v>
+        <v>2.723735408560311</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3645200486026731</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C88" t="n">
-        <v>4.243542435424354</v>
+        <v>0.1297016861219196</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.981132075471698</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5188067444876783</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>S_Xenobiotic_tolerance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.648508430609598</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>S_tRNA_Charging</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.334630350194553</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
           <t>Unassigned</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2.916160388821385</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.088560885608856</v>
+      <c r="B92" t="n">
+        <v>0.5660377358490566</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.334630350194553</v>
       </c>
     </row>
   </sheetData>
